--- a/derecha.xlsx
+++ b/derecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximena\Desktop\IABO\Datos sin filtrar\datos_filtrados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1C0DD5-927F-4800-A333-FA30888C91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C642C69-4A7C-45D6-93B1-B43AD77446E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D300FF35-0FA0-49F6-84D5-F7D3FC6E4AB8}"/>
   </bookViews>
@@ -38,22 +38,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>aX</t>
+    <t>AX</t>
   </si>
   <si>
-    <t>aY</t>
+    <t>AY</t>
   </si>
   <si>
-    <t>aZ</t>
+    <t>AZ</t>
   </si>
   <si>
-    <t>gX</t>
+    <t>GX</t>
   </si>
   <si>
-    <t>gY</t>
+    <t>GY</t>
   </si>
   <si>
-    <t>gZ</t>
+    <t>GZ</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
